--- a/biology/Biologie cellulaire et moléculaire/Membranelle/Membranelle.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Membranelle/Membranelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une membranelle est un organite que l'on trouve chez les Ciliés. Elle résulte de la fusion de plusieurs cils. La plupart des ciliés ont une série de membranelles sur le côté gauche de la bouche vers laquelle elles entraînent la nourriture. Les membranelles sont particulièrement importantes chez les Heterotrichea et les Spirotrichea.
  Portail de la biologie cellulaire et moléculaire                     </t>
